--- a/familias.xlsx
+++ b/familias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juang\Informatica\2DAM\Interfaz\ImportadorProductos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Practicas\Documents\java\ImportadorProductos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B0FF9-BF19-4F63-90A8-0C429666A614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AE6FA-4978-407D-A7B8-223D1C110EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2235" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ10"/>
+  <dimension ref="A1:BJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BJ10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="BA1" t="s">
@@ -912,6 +912,20 @@
       </c>
       <c r="BJ10" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>21352</v>
+      </c>
+      <c r="C11">
+        <v>453</v>
+      </c>
+      <c r="D11">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
